--- a/LSTMTRAIN.xlsx
+++ b/LSTMTRAIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APhDWorks\SubsidenceAnalysisSejong\1OnGoing\LSTM for parameter estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B065CD-BFF5-48FA-B90B-5A436315EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3477B0-6092-4492-9CF2-6872A191537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE49250E-E487-4F85-B7CE-E1272E30605A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE49250E-E487-4F85-B7CE-E1272E30605A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>settlement</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Surcharge</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F85"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,12 +445,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -459,16 +465,16 @@
         <v>26.628</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D2" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E2" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +485,16 @@
         <v>26.628</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E3" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,16 +505,16 @@
         <v>26.628</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D4" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E4" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,16 +525,16 @@
         <v>26.628</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D5" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E5" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,16 +545,16 @@
         <v>26.628</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D6" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E6" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,16 +565,16 @@
         <v>26.628</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D7" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E7" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,16 +585,16 @@
         <v>26.628</v>
       </c>
       <c r="C8" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D8" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E8" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,16 +605,16 @@
         <v>26.628</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D9" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E9" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,16 +625,16 @@
         <v>26.628</v>
       </c>
       <c r="C10" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D10" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E10" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,16 +645,16 @@
         <v>26.628</v>
       </c>
       <c r="C11" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D11" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E11" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -659,16 +665,16 @@
         <v>26.628</v>
       </c>
       <c r="C12" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D12" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E12" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,16 +685,16 @@
         <v>26.628</v>
       </c>
       <c r="C13" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D13" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E13" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,16 +705,16 @@
         <v>26.628</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D14" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E14" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,16 +725,16 @@
         <v>26.628</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D15" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E15" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,16 +745,16 @@
         <v>26.628</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D16" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E16" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,16 +765,16 @@
         <v>26.628</v>
       </c>
       <c r="C17" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D17" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E17" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,16 +785,16 @@
         <v>26.628</v>
       </c>
       <c r="C18" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D18" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E18" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,16 +805,16 @@
         <v>26.628</v>
       </c>
       <c r="C19" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D19" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E19" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,16 +825,16 @@
         <v>26.628</v>
       </c>
       <c r="C20" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D20" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E20" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,16 +845,16 @@
         <v>26.628</v>
       </c>
       <c r="C21" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D21" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E21" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,16 +865,16 @@
         <v>26.628</v>
       </c>
       <c r="C22" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D22" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E22" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,16 +885,16 @@
         <v>26.628</v>
       </c>
       <c r="C23" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D23" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E23" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,16 +905,16 @@
         <v>26.628</v>
       </c>
       <c r="C24" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D24" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E24" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F24" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,16 +925,16 @@
         <v>26.628</v>
       </c>
       <c r="C25" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D25" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E25" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,16 +945,16 @@
         <v>26.628</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D26" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E26" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,16 +965,16 @@
         <v>26.628</v>
       </c>
       <c r="C27" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D27" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E27" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F27" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,16 +985,16 @@
         <v>26.628</v>
       </c>
       <c r="C28" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D28" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E28" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,16 +1005,16 @@
         <v>26.628</v>
       </c>
       <c r="C29" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D29" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E29" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,16 +1025,16 @@
         <v>26.628</v>
       </c>
       <c r="C30" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D30" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E30" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,16 +1045,16 @@
         <v>26.628</v>
       </c>
       <c r="C31" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D31" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E31" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,16 +1065,16 @@
         <v>26.628</v>
       </c>
       <c r="C32" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D32" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E32" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,16 +1085,16 @@
         <v>26.628</v>
       </c>
       <c r="C33" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D33" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E33" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F33" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,16 +1105,16 @@
         <v>26.628</v>
       </c>
       <c r="C34" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D34" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E34" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,16 +1125,16 @@
         <v>26.628</v>
       </c>
       <c r="C35" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D35" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E35" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F35" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,16 +1145,16 @@
         <v>26.628</v>
       </c>
       <c r="C36" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D36" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E36" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F36" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,16 +1165,16 @@
         <v>26.628</v>
       </c>
       <c r="C37" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D37" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E37" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F37" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,16 +1185,16 @@
         <v>26.628</v>
       </c>
       <c r="C38" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D38" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E38" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F38" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,16 +1205,16 @@
         <v>26.628</v>
       </c>
       <c r="C39" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D39" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E39" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,16 +1225,16 @@
         <v>26.628</v>
       </c>
       <c r="C40" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D40" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E40" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F40" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,16 +1245,16 @@
         <v>26.628</v>
       </c>
       <c r="C41" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D41" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E41" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F41" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,16 +1265,16 @@
         <v>26.628</v>
       </c>
       <c r="C42" s="1">
-        <v>0.5181829</v>
+        <v>113.404</v>
       </c>
       <c r="D42" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E42" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F42" s="1">
-        <v>113.404</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,16 +1285,16 @@
         <v>26.628</v>
       </c>
       <c r="C43" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E43" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F43" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,16 +1305,16 @@
         <v>26.628</v>
       </c>
       <c r="C44" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D44" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E44" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F44" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,16 +1325,16 @@
         <v>26.628</v>
       </c>
       <c r="C45" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E45" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F45" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,16 +1345,16 @@
         <v>26.628</v>
       </c>
       <c r="C46" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D46" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E46" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,16 +1365,16 @@
         <v>26.628</v>
       </c>
       <c r="C47" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D47" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E47" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F47" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,16 +1385,16 @@
         <v>26.628</v>
       </c>
       <c r="C48" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E48" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F48" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,16 +1405,16 @@
         <v>26.628</v>
       </c>
       <c r="C49" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E49" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F49" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,16 +1425,16 @@
         <v>26.628</v>
       </c>
       <c r="C50" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D50" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E50" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F50" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,16 +1445,16 @@
         <v>26.628</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D51" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E51" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F51" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,16 +1465,16 @@
         <v>26.628</v>
       </c>
       <c r="C52" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D52" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E52" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F52" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,16 +1485,16 @@
         <v>26.628</v>
       </c>
       <c r="C53" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E53" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F53" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,16 +1505,16 @@
         <v>26.628</v>
       </c>
       <c r="C54" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D54" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E54" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F54" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,16 +1525,16 @@
         <v>26.628</v>
       </c>
       <c r="C55" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E55" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F55" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,16 +1545,16 @@
         <v>26.628</v>
       </c>
       <c r="C56" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D56" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E56" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F56" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,16 +1565,16 @@
         <v>26.628</v>
       </c>
       <c r="C57" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E57" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F57" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,16 +1585,16 @@
         <v>26.628</v>
       </c>
       <c r="C58" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D58" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E58" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F58" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,16 +1605,16 @@
         <v>26.628</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D59" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E59" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F59" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,16 +1625,16 @@
         <v>26.628</v>
       </c>
       <c r="C60" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D60" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E60" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F60" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,16 +1645,16 @@
         <v>26.628</v>
       </c>
       <c r="C61" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D61" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E61" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F61" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,16 +1665,16 @@
         <v>26.628</v>
       </c>
       <c r="C62" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D62" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E62" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F62" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,16 +1685,16 @@
         <v>26.628</v>
       </c>
       <c r="C63" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D63" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E63" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F63" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,16 +1705,16 @@
         <v>26.628</v>
       </c>
       <c r="C64" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D64" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E64" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F64" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,16 +1725,16 @@
         <v>26.628</v>
       </c>
       <c r="C65" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D65" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E65" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F65" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,16 +1745,16 @@
         <v>26.628</v>
       </c>
       <c r="C66" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E66" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F66" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,16 +1765,16 @@
         <v>26.628</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D67" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E67" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F67" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,16 +1785,16 @@
         <v>26.628</v>
       </c>
       <c r="C68" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D68" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E68" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F68" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,16 +1805,16 @@
         <v>26.628</v>
       </c>
       <c r="C69" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D69" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E69" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F69" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,16 +1825,16 @@
         <v>26.628</v>
       </c>
       <c r="C70" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D70" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E70" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F70" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,16 +1845,16 @@
         <v>26.628</v>
       </c>
       <c r="C71" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D71" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E71" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F71" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,16 +1865,16 @@
         <v>26.628</v>
       </c>
       <c r="C72" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D72" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E72" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,16 +1885,16 @@
         <v>26.628</v>
       </c>
       <c r="C73" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E73" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F73" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,16 +1905,16 @@
         <v>26.628</v>
       </c>
       <c r="C74" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D74" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E74" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F74" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,16 +1925,16 @@
         <v>26.628</v>
       </c>
       <c r="C75" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D75" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E75" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F75" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,16 +1945,16 @@
         <v>26.628</v>
       </c>
       <c r="C76" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D76" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E76" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F76" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,16 +1965,16 @@
         <v>26.628</v>
       </c>
       <c r="C77" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E77" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F77" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,16 +1985,16 @@
         <v>26.628</v>
       </c>
       <c r="C78" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D78" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E78" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F78" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,16 +2005,16 @@
         <v>26.628</v>
       </c>
       <c r="C79" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D79" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E79" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F79" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2025,16 @@
         <v>26.628</v>
       </c>
       <c r="C80" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E80" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F80" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,16 +2045,16 @@
         <v>26.628</v>
       </c>
       <c r="C81" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E81" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F81" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,16 +2065,16 @@
         <v>26.628</v>
       </c>
       <c r="C82" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D82" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E82" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F82" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,16 +2085,16 @@
         <v>26.628</v>
       </c>
       <c r="C83" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D83" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E83" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F83" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,16 +2105,16 @@
         <v>26.628</v>
       </c>
       <c r="C84" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D84" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E84" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F84" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,16 +2125,16 @@
         <v>26.628</v>
       </c>
       <c r="C85" s="1">
-        <v>0.5181829</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D85" s="1">
-        <v>1.4013949999999999</v>
+        <v>0.5181829</v>
       </c>
       <c r="E85" s="1">
-        <v>4.4963039999999999E-4</v>
+        <v>1.4013949999999999</v>
       </c>
       <c r="F85" s="1">
-        <v>137.86199999999999</v>
+        <v>4.4963039999999999E-4</v>
       </c>
     </row>
   </sheetData>
